--- a/Yolngu/YolVblParadigms/YolVblParadigms.xlsx
+++ b/Yolngu/YolVblParadigms/YolVblParadigms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshphillips/Dropbox/dissertation/Yolngu/YolVblParadigms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshphillips/Dropbox/diss-arch/dissertation/Yolngu/YolVblParadigms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD95190-C107-E44F-AB8B-A64D933E7701}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23E0DF-661D-5847-ABE3-C11AB7EE29BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dhuwala" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="327">
   <si>
     <t>Form</t>
   </si>
@@ -1106,12 +1106,21 @@
   <si>
     <t>wäniya</t>
   </si>
+  <si>
+    <t>note that this is consistent with -nha/-nya: the FOURTH inflection in WD</t>
+  </si>
+  <si>
+    <t>whereas this is the same (FOUTH) w the augment</t>
+  </si>
+  <si>
+    <t>possible from IPFV ga+II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1599,6 +1608,7 @@
     <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1608,7 +1618,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,7 +1913,7 @@
       <selection activeCell="I12" sqref="H12:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="6" width="10.83203125" style="14"/>
     <col min="7" max="7" width="22.1640625" style="14" customWidth="1"/>
@@ -1912,20 +1921,20 @@
     <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="17" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>55</v>
       </c>
@@ -2100,20 +2109,20 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="28" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17" thickBot="1">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="17" thickBot="1">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="21" t="s">
         <v>55</v>
       </c>
@@ -2258,15 +2267,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
+      <c r="A16" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2301,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>101</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>55</v>
       </c>
@@ -2418,22 +2427,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="90" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="A27" s="30" t="s">
         <v>104</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="A28" s="24" t="s">
         <v>106</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="31" t="s">
         <v>105</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="20" customHeight="1" thickBot="1">
       <c r="A30" s="26" t="s">
         <v>107</v>
       </c>
@@ -2572,20 +2581,20 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+    <row r="31" spans="1:11" ht="17" customHeight="1"/>
+    <row r="32" spans="1:11" ht="17" customHeight="1"/>
+    <row r="33" spans="1:9" ht="17" thickBot="1">
+      <c r="A33" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-    </row>
-    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickBot="1">
       <c r="A34" s="52" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>198</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" thickBot="1">
       <c r="A36" s="24" t="s">
         <v>200</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" thickBot="1">
       <c r="A37" s="33" t="s">
         <v>202</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17" thickBot="1">
       <c r="A38" s="34" t="s">
         <v>201</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="33" thickBot="1">
       <c r="A39" s="62" t="s">
         <v>203</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="33" thickBot="1">
       <c r="A40" s="26" t="s">
         <v>204</v>
       </c>
@@ -2770,16 +2779,16 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="88" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="28" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" thickBot="1">
       <c r="A45" s="30" t="s">
         <v>168</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" thickBot="1">
       <c r="A46" s="72" t="s">
         <v>170</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="71" t="s">
         <v>169</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="28" t="s">
         <v>186</v>
       </c>
@@ -2864,7 +2873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="17" thickBot="1">
       <c r="A49" s="28" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="17" thickBot="1">
       <c r="A50" s="26" t="s">
         <v>171</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="28" t="s">
         <v>172</v>
       </c>
@@ -2932,34 +2941,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954570C-A48A-2B47-A7DB-0FDA3F9921B4}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="88" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2994,7 +3003,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>104</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="46" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>106</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>105</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>107</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3175,25 +3184,25 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="A1" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>198</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>200</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>202</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>201</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickBot="1">
       <c r="A7" s="62" t="s">
         <v>203</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>204</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="F11" t="s">
         <v>222</v>
       </c>
@@ -3392,11 +3401,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="14"/>
@@ -3404,17 +3413,17 @@
     <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1">
+      <c r="A1" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
@@ -3468,7 +3477,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -3487,8 +3496,11 @@
       <c r="F5" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>26</v>
       </c>
@@ -3522,7 +3534,7 @@
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" thickBot="1">
       <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
@@ -3536,7 +3548,7 @@
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>31</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>31</v>
       </c>
@@ -3570,7 +3582,7 @@
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="33" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>39</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>39</v>
       </c>
@@ -3606,8 +3618,11 @@
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>46</v>
       </c>
@@ -3626,8 +3641,11 @@
       <c r="F13" s="65" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>46</v>
       </c>
@@ -3641,7 +3659,7 @@
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" thickBot="1">
       <c r="A15" s="26" t="s">
         <v>46</v>
       </c>
@@ -3655,20 +3673,20 @@
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
       <c r="I17" s="28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="17" thickBot="1">
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17" thickBot="1">
       <c r="A19" s="32" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3762,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="17" thickBot="1">
       <c r="A20" s="32" t="s">
         <v>6</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="17" thickBot="1">
       <c r="A21" s="24" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3829,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="36" t="s">
         <v>138</v>
       </c>
@@ -3846,7 +3864,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="38" t="s">
         <v>139</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="40" t="s">
         <v>143</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="40" t="s">
         <v>143</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="17" thickBot="1">
       <c r="A26" s="37" t="s">
         <v>31</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="17" thickBot="1">
       <c r="A27" s="34" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +3994,7 @@
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
     </row>
-    <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="17" thickBot="1">
       <c r="A28" s="26" t="s">
         <v>46</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="31" thickBot="1">
       <c r="A29" s="26" t="s">
         <v>46</v>
       </c>
@@ -4013,7 +4031,7 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
     </row>
-    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="17" thickBot="1">
       <c r="A30" s="26" t="s">
         <v>46</v>
       </c>
@@ -4044,12 +4062,12 @@
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="14">
         <v>1</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>168</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="67" t="s">
         <v>169</v>
       </c>
@@ -4097,7 +4115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>186</v>
       </c>
@@ -4114,7 +4132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
         <v>170</v>
       </c>
@@ -4131,7 +4149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>171</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
         <v>172</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
         <v>188</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="27" t="s">
         <v>190</v>
       </c>
@@ -4201,7 +4219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="27" t="s">
         <v>191</v>
       </c>
@@ -4209,7 +4227,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="27" t="s">
         <v>192</v>
       </c>
